--- a/data/trans_orig/P15DS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15DS1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{598C96ED-F9F7-43EC-9E5D-74C742960993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF59BAD-8A34-4189-BBB7-BB3975E1D09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31F87577-3B96-46C8-B56F-C977BB24FC48}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F99FA328-AB02-44A2-9E10-C68C746CEF82}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="759">
   <si>
     <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -89,10 +89,10 @@
     <t>40,67%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>Consultar a un médico o enfermera (fuera de un hospital o cl</t>
@@ -110,7 +110,7 @@
     <t>17,81%</t>
   </si>
   <si>
-    <t>71,59%</t>
+    <t>63,94%</t>
   </si>
   <si>
     <t>Acudir a un servicio de urgencias de un hospital o clínica</t>
@@ -125,7 +125,7 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>87,66%</t>
+    <t>87,2%</t>
   </si>
   <si>
     <t>Ser ingresado en un hospital o clínica</t>
@@ -143,10 +143,10 @@
     <t>26,09%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -155,2200 +155,2167 @@
     <t>15,28%</t>
   </si>
   <si>
-    <t>6,0%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>30,53%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
   </si>
   <si>
     <t>71,62%</t>
   </si>
   <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
   <si>
     <t>59,72%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>21,75%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>10,9%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>59,52%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>16,37%</t>
+    <t>16,48%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
 </sst>
 </file>
@@ -2760,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04FFF34-5C66-4CA5-B234-EDD9EFDEFF0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAB627-F40D-421C-A232-76317704FD1B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3198,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3207,13 +3174,13 @@
         <v>1941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3222,13 +3189,13 @@
         <v>4919</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3210,13 @@
         <v>10792</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3258,13 +3225,13 @@
         <v>10232</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -3273,13 +3240,13 @@
         <v>21024</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3267,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3309,13 +3276,13 @@
         <v>1021</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3324,13 +3291,13 @@
         <v>1021</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,7 +3353,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3398,13 +3365,13 @@
         <v>6352</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3413,13 +3380,13 @@
         <v>8064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3428,13 +3395,13 @@
         <v>14416</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3416,13 @@
         <v>4727</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -3464,13 +3431,13 @@
         <v>4400</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -3479,13 +3446,13 @@
         <v>9128</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3467,13 @@
         <v>23507</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3515,13 +3482,13 @@
         <v>17671</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3530,13 +3497,13 @@
         <v>41178</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3518,13 @@
         <v>8194</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3572,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3581,13 +3548,13 @@
         <v>8194</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3610,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3655,13 +3622,13 @@
         <v>8835</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3670,13 +3637,13 @@
         <v>2986</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -3685,13 +3652,13 @@
         <v>11821</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3673,13 @@
         <v>5683</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3721,13 +3688,13 @@
         <v>1074</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3736,13 +3703,13 @@
         <v>6757</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3724,13 @@
         <v>3601</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -3772,13 +3739,13 @@
         <v>18343</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3787,13 +3754,13 @@
         <v>21944</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3775,13 @@
         <v>5687</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3823,13 +3790,13 @@
         <v>1711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3838,10 +3805,10 @@
         <v>7398</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>130</v>
@@ -4435,7 +4402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0FB305-9C39-4E72-AAB2-8FB9612204D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78730422-BAE8-4A3B-B179-0FDE9B6C9AC5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4595,7 +4562,7 @@
         <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,7 +4583,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4631,7 +4598,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4646,7 +4613,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4628,13 @@
         <v>11091</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4676,10 +4643,10 @@
         <v>3555</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -4691,13 +4658,13 @@
         <v>14646</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4679,13 @@
         <v>3243</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4727,13 +4694,13 @@
         <v>1172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4742,10 +4709,10 @@
         <v>4416</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>227</v>
@@ -5061,7 +5028,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5127,10 +5094,10 @@
         <v>272</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -5139,7 +5106,7 @@
         <v>8203</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>275</v>
@@ -5157,10 +5124,10 @@
         <v>277</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5142,13 @@
         <v>50489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5190,13 +5157,13 @@
         <v>38339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -5205,13 +5172,13 @@
         <v>88828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5193,13 @@
         <v>4009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5241,7 +5208,7 @@
         <v>8565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>292</v>
@@ -5262,7 +5229,7 @@
         <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,7 +5285,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5330,13 +5297,13 @@
         <v>10514</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5345,7 +5312,7 @@
         <v>13655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>300</v>
@@ -5381,7 +5348,7 @@
         <v>6053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>305</v>
@@ -5411,13 +5378,13 @@
         <v>7041</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5399,13 @@
         <v>33334</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H21" s="7">
         <v>34</v>
@@ -5447,13 +5414,13 @@
         <v>37137</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -5462,13 +5429,13 @@
         <v>70471</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5450,13 @@
         <v>7560</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5498,13 +5465,13 @@
         <v>5264</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5513,13 +5480,13 @@
         <v>12825</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5554,13 @@
         <v>31516</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -5602,13 +5569,13 @@
         <v>26975</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5617,13 +5584,13 @@
         <v>58492</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5605,13 @@
         <v>9562</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5653,13 +5620,13 @@
         <v>8631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -5671,10 +5638,10 @@
         <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5656,13 @@
         <v>42193</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -5704,13 +5671,13 @@
         <v>34617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -5719,13 +5686,13 @@
         <v>76810</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,10 +5710,10 @@
         <v>242</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -5755,13 +5722,13 @@
         <v>2060</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -5770,13 +5737,13 @@
         <v>6996</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5811,13 @@
         <v>71311</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -5859,13 +5826,13 @@
         <v>71646</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>366</v>
+        <v>228</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
@@ -5874,13 +5841,13 @@
         <v>142957</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5862,13 @@
         <v>23180</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5910,13 +5877,13 @@
         <v>21840</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -5925,13 +5892,13 @@
         <v>45020</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5913,13 @@
         <v>166030</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H31" s="7">
         <v>131</v>
@@ -5961,13 +5928,13 @@
         <v>140550</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M31" s="7">
         <v>289</v>
@@ -5976,13 +5943,13 @@
         <v>306580</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5964,13 @@
         <v>23248</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -6012,13 +5979,13 @@
         <v>20308</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -6027,13 +5994,13 @@
         <v>43556</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68243873-9634-4D2E-BAC5-ECC6FC467A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F049E10-6DE5-410B-81BA-33A474AFF142}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6127,7 +6094,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6234,13 +6201,13 @@
         <v>1032</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6255,7 +6222,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6264,13 +6231,13 @@
         <v>1032</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6252,13 @@
         <v>1671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6300,13 +6267,13 @@
         <v>1089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6315,13 +6282,13 @@
         <v>2760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6303,13 @@
         <v>2818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6351,13 +6318,13 @@
         <v>3054</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>408</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -6366,13 +6333,13 @@
         <v>5872</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6369,13 @@
         <v>2126</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>414</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6417,13 +6384,13 @@
         <v>2126</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6458,13 @@
         <v>6513</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6506,13 +6473,13 @@
         <v>3841</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -6521,13 +6488,13 @@
         <v>10354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6509,13 @@
         <v>2523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -6557,13 +6524,13 @@
         <v>5827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6572,13 +6539,13 @@
         <v>8350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6560,13 @@
         <v>22996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -6608,13 +6575,13 @@
         <v>28056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -6623,13 +6590,13 @@
         <v>51052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>442</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6611,13 @@
         <v>4054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6659,13 +6626,13 @@
         <v>4682</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -6674,13 +6641,13 @@
         <v>8736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,7 +6703,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6748,13 +6715,13 @@
         <v>7914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6763,13 +6730,13 @@
         <v>9283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -6778,13 +6745,13 @@
         <v>17197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6766,13 @@
         <v>8895</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6814,13 +6781,13 @@
         <v>5411</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -6829,13 +6796,13 @@
         <v>14307</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6817,13 @@
         <v>34593</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -6865,13 +6832,13 @@
         <v>25341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -6880,13 +6847,13 @@
         <v>59935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6868,13 @@
         <v>9073</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6916,13 +6883,13 @@
         <v>7376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -6931,13 +6898,13 @@
         <v>16449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,7 +6960,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7005,13 +6972,13 @@
         <v>5879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>487</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -7020,13 +6987,13 @@
         <v>8659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -7035,13 +7002,13 @@
         <v>14538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7023,13 @@
         <v>1991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7077,7 +7044,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7086,13 +7053,13 @@
         <v>1991</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7074,13 @@
         <v>24751</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -7122,13 +7089,13 @@
         <v>20790</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -7137,13 +7104,13 @@
         <v>45541</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7125,13 @@
         <v>4044</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7173,13 +7140,13 @@
         <v>2112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7188,13 +7155,13 @@
         <v>6157</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7229,13 @@
         <v>11050</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>512</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7277,13 +7244,13 @@
         <v>5320</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -7292,13 +7259,13 @@
         <v>16370</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7280,13 @@
         <v>9529</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>524</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7328,13 +7295,13 @@
         <v>6126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>527</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7343,13 +7310,13 @@
         <v>15655</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7331,13 @@
         <v>35113</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -7379,13 +7346,13 @@
         <v>46449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -7394,13 +7361,13 @@
         <v>81561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7382,13 @@
         <v>5194</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>543</v>
+        <v>440</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>224</v>
+        <v>534</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -7430,13 +7397,13 @@
         <v>4723</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -7445,13 +7412,13 @@
         <v>9917</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7486,13 @@
         <v>32388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -7534,13 +7501,13 @@
         <v>27103</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -7549,13 +7516,13 @@
         <v>59491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>557</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7537,13 @@
         <v>24610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -7585,13 +7552,13 @@
         <v>18453</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -7600,13 +7567,13 @@
         <v>43063</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>566</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7588,13 @@
         <v>120271</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="H31" s="7">
         <v>110</v>
@@ -7636,13 +7603,13 @@
         <v>123689</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="M31" s="7">
         <v>225</v>
@@ -7651,13 +7618,13 @@
         <v>243960</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7639,13 @@
         <v>22365</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -7687,13 +7654,13 @@
         <v>21020</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -7702,13 +7669,13 @@
         <v>43385</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +7752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D35BC7-B2EB-4755-98BC-1FFAD5BAC4CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A0ABF1-291A-4003-A727-B70C3FBD3AD3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7802,7 +7769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7909,13 +7876,13 @@
         <v>916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>583</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7924,13 +7891,13 @@
         <v>737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>573</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>489</v>
+        <v>574</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -7939,13 +7906,13 @@
         <v>1653</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>528</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7927,13 @@
         <v>374</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>577</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7975,13 +7942,13 @@
         <v>2108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>589</v>
+        <v>479</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -7990,13 +7957,13 @@
         <v>2482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7978,13 @@
         <v>2460</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -8026,13 +7993,13 @@
         <v>3882</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -8041,13 +8008,13 @@
         <v>6343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8029,13 @@
         <v>2266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8077,13 +8044,13 @@
         <v>852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -8092,13 +8059,13 @@
         <v>3118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8133,13 @@
         <v>6833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -8181,13 +8148,13 @@
         <v>7218</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -8196,13 +8163,13 @@
         <v>14051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,13 +8184,13 @@
         <v>5195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -8232,13 +8199,13 @@
         <v>6045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -8247,13 +8214,13 @@
         <v>11241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8235,13 @@
         <v>22697</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -8283,13 +8250,13 @@
         <v>19837</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>380</v>
+        <v>618</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -8298,13 +8265,13 @@
         <v>42534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8286,13 @@
         <v>5877</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -8334,13 +8301,13 @@
         <v>5352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -8349,13 +8316,13 @@
         <v>11229</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8411,7 +8378,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8423,13 +8390,13 @@
         <v>13767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -8438,13 +8405,13 @@
         <v>14258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -8453,13 +8420,13 @@
         <v>28026</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,13 +8441,13 @@
         <v>5996</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>485</v>
+        <v>641</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>652</v>
+        <v>443</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -8489,13 +8456,13 @@
         <v>10338</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>656</v>
+        <v>165</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
@@ -8504,13 +8471,13 @@
         <v>16335</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>111</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,10 +8495,10 @@
         <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -8540,13 +8507,13 @@
         <v>30237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -8555,13 +8522,13 @@
         <v>64640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8576,13 +8543,13 @@
         <v>13545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -8591,13 +8558,13 @@
         <v>8146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>671</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -8606,13 +8573,13 @@
         <v>21691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>662</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8668,7 +8635,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8680,13 +8647,13 @@
         <v>4163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>665</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -8695,13 +8662,13 @@
         <v>7778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>679</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -8710,13 +8677,13 @@
         <v>11941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8731,13 +8698,13 @@
         <v>1279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>146</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>672</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -8746,13 +8713,13 @@
         <v>11286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -8761,13 +8728,13 @@
         <v>12565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8782,13 +8749,13 @@
         <v>18661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -8797,13 +8764,13 @@
         <v>24605</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>694</v>
+        <v>578</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -8812,13 +8779,13 @@
         <v>43266</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8833,13 +8800,13 @@
         <v>5718</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -8848,13 +8815,13 @@
         <v>4407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -8863,13 +8830,13 @@
         <v>10124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8937,13 +8904,13 @@
         <v>7711</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -8952,13 +8919,13 @@
         <v>14899</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>710</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -8967,13 +8934,13 @@
         <v>22610</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>714</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8988,13 +8955,13 @@
         <v>4503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>715</v>
+        <v>462</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -9003,13 +8970,13 @@
         <v>13430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>229</v>
+        <v>706</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -9018,13 +8985,13 @@
         <v>17934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>708</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9039,13 +9006,13 @@
         <v>42129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -9054,13 +9021,13 @@
         <v>39086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -9069,13 +9036,13 @@
         <v>81215</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>716</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9090,13 +9057,13 @@
         <v>6469</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>532</v>
+        <v>720</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -9105,13 +9072,13 @@
         <v>7772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -9120,13 +9087,13 @@
         <v>14241</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>734</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9194,13 +9161,13 @@
         <v>33389</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="H29" s="7">
         <v>73</v>
@@ -9209,13 +9176,13 @@
         <v>44892</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>739</v>
+        <v>548</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="M29" s="7">
         <v>113</v>
@@ -9224,13 +9191,13 @@
         <v>78281</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9245,13 +9212,13 @@
         <v>17347</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -9260,13 +9227,13 @@
         <v>43208</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="M30" s="7">
         <v>84</v>
@@ -9275,13 +9242,13 @@
         <v>60556</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>516</v>
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9296,13 +9263,13 @@
         <v>120351</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="H31" s="7">
         <v>181</v>
@@ -9311,13 +9278,13 @@
         <v>117647</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="M31" s="7">
         <v>297</v>
@@ -9326,13 +9293,13 @@
         <v>237998</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>760</v>
+        <v>494</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9347,13 +9314,13 @@
         <v>33874</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="H32" s="7">
         <v>41</v>
@@ -9362,13 +9329,13 @@
         <v>26529</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>393</v>
+        <v>555</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -9377,13 +9344,13 @@
         <v>60404</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15DS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15DS1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF59BAD-8A34-4189-BBB7-BB3975E1D09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F409800-B488-4EDD-9217-5090FA946FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F99FA328-AB02-44A2-9E10-C68C746CEF82}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D382848D-940C-48BA-A112-F71CFE8EEC04}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="772">
   <si>
     <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No fue necesaria ninguna atención sanitaria</t>
@@ -89,2221 +89,2260 @@
     <t>40,67%</t>
   </si>
   <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>Consultar a un médico o enfermera (fuera de un hospital o cl</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>Acudir a un servicio de urgencias de un hospital o clínica</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>Ser ingresado en un hospital o clínica</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2016 (Tasa respuesta: 5,54%)</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>Consultar a un médico o enfermera (fuera de un hospital o cl</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>Acudir a un servicio de urgencias de un hospital o clínica</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>Ser ingresado en un hospital o clínica</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>8,1%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
   </si>
   <si>
     <t>16,48%</t>
@@ -2727,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAB627-F40D-421C-A232-76317704FD1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8D2DB-ED41-4995-B6AC-728EE9E8C94E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3165,7 +3204,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3174,13 +3213,13 @@
         <v>1941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3189,13 +3228,13 @@
         <v>4919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3249,13 @@
         <v>10792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3225,13 +3264,13 @@
         <v>10232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -3240,13 +3279,13 @@
         <v>21024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3306,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3276,13 +3315,13 @@
         <v>1021</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3291,13 +3330,13 @@
         <v>1021</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,7 +3392,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3365,13 +3404,13 @@
         <v>6352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3380,13 +3419,13 @@
         <v>8064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3395,13 +3434,13 @@
         <v>14416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3455,13 @@
         <v>4727</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -3431,13 +3470,13 @@
         <v>4400</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -3446,13 +3485,13 @@
         <v>9128</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3506,13 @@
         <v>23507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3482,13 +3521,13 @@
         <v>17671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3497,13 +3536,13 @@
         <v>41178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3557,13 @@
         <v>8194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3539,7 +3578,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3548,13 +3587,13 @@
         <v>8194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3622,10 +3661,10 @@
         <v>8835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>99</v>
@@ -3897,10 +3936,10 @@
         <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3909,13 +3948,13 @@
         <v>14526</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3969,13 @@
         <v>1767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3945,13 +3984,13 @@
         <v>4741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3960,13 +3999,13 @@
         <v>6507</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +4020,13 @@
         <v>17127</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -3996,13 +4035,13 @@
         <v>13676</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -4011,13 +4050,13 @@
         <v>30804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4071,13 @@
         <v>3234</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -4402,7 +4441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78730422-BAE8-4A3B-B179-0FDE9B6C9AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95C1BC-8180-4B04-8F7D-644A42638F7C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4562,7 +4601,7 @@
         <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4622,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4598,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4613,7 +4652,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4667,13 @@
         <v>11091</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4643,10 +4682,10 @@
         <v>3555</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -4658,13 +4697,13 @@
         <v>14646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4718,13 @@
         <v>3243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4694,13 +4733,13 @@
         <v>1172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4709,13 +4748,13 @@
         <v>4416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4822,13 @@
         <v>9697</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4798,13 +4837,13 @@
         <v>12406</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -4813,13 +4852,13 @@
         <v>22104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4873,13 @@
         <v>1003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4849,13 +4888,13 @@
         <v>4018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4864,13 +4903,13 @@
         <v>5022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4924,13 @@
         <v>28923</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4900,13 +4939,13 @@
         <v>26901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -4915,13 +4954,13 @@
         <v>55825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4975,13 @@
         <v>3499</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4951,10 +4990,10 @@
         <v>3247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>259</v>
@@ -5028,7 +5067,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5094,10 +5133,10 @@
         <v>272</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -5106,13 +5145,13 @@
         <v>8203</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -5208,13 +5247,13 @@
         <v>8565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5223,13 +5262,13 @@
         <v>12573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5324,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5297,13 +5336,13 @@
         <v>10514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5312,13 +5351,13 @@
         <v>13655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -5327,13 +5366,13 @@
         <v>24169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5387,13 @@
         <v>6053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5363,13 +5402,13 @@
         <v>988</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5378,13 +5417,13 @@
         <v>7041</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5438,13 @@
         <v>33334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>34</v>
@@ -5414,13 +5453,13 @@
         <v>37137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -5429,13 +5468,13 @@
         <v>70471</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5489,13 @@
         <v>7560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5465,13 +5504,13 @@
         <v>5264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5480,13 +5519,13 @@
         <v>12825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5593,13 @@
         <v>31516</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -5569,13 +5608,13 @@
         <v>26975</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5584,13 +5623,13 @@
         <v>58492</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5644,13 @@
         <v>9562</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5620,13 +5659,13 @@
         <v>8631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -5635,13 +5674,13 @@
         <v>18194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5695,13 @@
         <v>42193</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -5671,13 +5710,13 @@
         <v>34617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -5686,13 +5725,13 @@
         <v>76810</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5746,13 @@
         <v>4936</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -5722,13 +5761,13 @@
         <v>2060</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -5737,13 +5776,13 @@
         <v>6996</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5850,13 @@
         <v>71311</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -5826,13 +5865,13 @@
         <v>71646</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
@@ -5841,13 +5880,13 @@
         <v>142957</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5901,13 @@
         <v>23180</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5877,13 +5916,13 @@
         <v>21840</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -5892,13 +5931,13 @@
         <v>45020</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5952,13 @@
         <v>166030</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H31" s="7">
         <v>131</v>
@@ -5928,13 +5967,13 @@
         <v>140550</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M31" s="7">
         <v>289</v>
@@ -5943,13 +5982,13 @@
         <v>306580</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +6003,13 @@
         <v>23248</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -5979,13 +6018,13 @@
         <v>20308</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -5994,13 +6033,13 @@
         <v>43556</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +6116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F049E10-6DE5-410B-81BA-33A474AFF142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA6E1A9-6757-4289-B28C-589DD039AC9E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6094,7 +6133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6201,13 +6240,13 @@
         <v>1032</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6222,7 +6261,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6231,13 +6270,13 @@
         <v>1032</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6291,13 @@
         <v>1671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6267,13 +6306,13 @@
         <v>1089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6282,13 +6321,13 @@
         <v>2760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6342,13 @@
         <v>2818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6318,13 +6357,13 @@
         <v>3054</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -6333,13 +6372,13 @@
         <v>5872</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6408,13 @@
         <v>2126</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>416</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6384,13 +6423,13 @@
         <v>2126</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6497,13 @@
         <v>6513</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6473,13 +6512,13 @@
         <v>3841</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -6488,13 +6527,13 @@
         <v>10354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6548,13 @@
         <v>2523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -6524,13 +6563,13 @@
         <v>5827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6539,13 +6578,13 @@
         <v>8350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6599,13 @@
         <v>22996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -6575,13 +6614,13 @@
         <v>28056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -6590,13 +6629,13 @@
         <v>51052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6650,13 @@
         <v>4054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6626,13 +6665,13 @@
         <v>4682</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -6641,13 +6680,13 @@
         <v>8736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,7 +6742,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6715,13 +6754,13 @@
         <v>7914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6730,13 +6769,13 @@
         <v>9283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -6745,13 +6784,13 @@
         <v>17197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6805,13 @@
         <v>8895</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6781,13 +6820,13 @@
         <v>5411</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -6796,13 +6835,13 @@
         <v>14307</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6856,13 @@
         <v>34593</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -6832,13 +6871,13 @@
         <v>25341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -6847,13 +6886,13 @@
         <v>59935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6907,13 @@
         <v>9073</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6883,13 +6922,13 @@
         <v>7376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -6898,13 +6937,13 @@
         <v>16449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,7 +6999,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6972,13 +7011,13 @@
         <v>5879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>60</v>
+        <v>488</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6987,13 +7026,13 @@
         <v>8659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -7002,13 +7041,13 @@
         <v>14538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,13 +7062,13 @@
         <v>1991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7044,7 +7083,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7053,13 +7092,13 @@
         <v>1991</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,13 +7113,13 @@
         <v>24751</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -7089,13 +7128,13 @@
         <v>20790</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>497</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -7104,13 +7143,13 @@
         <v>45541</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7164,13 @@
         <v>4044</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7140,13 +7179,13 @@
         <v>2112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7155,13 +7194,13 @@
         <v>6157</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,13 +7268,13 @@
         <v>11050</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7244,13 +7283,13 @@
         <v>5320</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -7259,13 +7298,13 @@
         <v>16370</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>516</v>
+        <v>104</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>518</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7319,13 @@
         <v>9529</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7295,13 +7334,13 @@
         <v>6126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>527</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7310,13 +7349,13 @@
         <v>15655</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7370,13 @@
         <v>35113</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -7346,13 +7385,13 @@
         <v>46449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -7361,13 +7400,13 @@
         <v>81561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7421,13 @@
         <v>5194</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>440</v>
+        <v>542</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -7397,13 +7436,13 @@
         <v>4723</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -7412,13 +7451,13 @@
         <v>9917</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,13 +7525,13 @@
         <v>32388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -7501,13 +7540,13 @@
         <v>27103</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -7516,13 +7555,13 @@
         <v>59491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>556</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7576,13 @@
         <v>24610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -7552,13 +7591,13 @@
         <v>18453</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -7567,13 +7606,13 @@
         <v>43063</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>267</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,13 +7627,13 @@
         <v>120271</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>557</v>
+        <v>189</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="H31" s="7">
         <v>110</v>
@@ -7603,13 +7642,13 @@
         <v>123689</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>559</v>
+        <v>285</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M31" s="7">
         <v>225</v>
@@ -7618,13 +7657,13 @@
         <v>243960</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7678,13 @@
         <v>22365</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>566</v>
+        <v>488</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -7654,13 +7693,13 @@
         <v>21020</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -7669,13 +7708,13 @@
         <v>43385</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,7 +7791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A0ABF1-291A-4003-A727-B70C3FBD3AD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F35A26-9B64-429C-84E2-3B7A304904C4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7769,7 +7808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7876,13 +7915,13 @@
         <v>916</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>579</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>572</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7891,13 +7930,13 @@
         <v>737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -7906,13 +7945,13 @@
         <v>1653</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7966,13 @@
         <v>374</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7942,13 +7981,13 @@
         <v>2108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>587</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -7957,13 +7996,13 @@
         <v>2482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +8017,13 @@
         <v>2460</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -7993,13 +8032,13 @@
         <v>3882</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -8008,13 +8047,13 @@
         <v>6343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8068,13 @@
         <v>2266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8044,13 +8083,13 @@
         <v>852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -8059,13 +8098,13 @@
         <v>3118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8172,13 @@
         <v>6833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -8148,13 +8187,13 @@
         <v>7218</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -8163,13 +8202,13 @@
         <v>14051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8223,13 @@
         <v>5195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>608</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -8199,13 +8238,13 @@
         <v>6045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>610</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>617</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -8214,13 +8253,13 @@
         <v>11241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8274,13 @@
         <v>22697</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -8250,13 +8289,13 @@
         <v>19837</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -8265,13 +8304,13 @@
         <v>42534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,13 +8325,13 @@
         <v>5877</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -8301,13 +8340,13 @@
         <v>5352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -8316,13 +8355,13 @@
         <v>11229</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,7 +8417,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8390,13 +8429,13 @@
         <v>13767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -8405,13 +8444,13 @@
         <v>14258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -8420,13 +8459,13 @@
         <v>28026</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,13 +8480,13 @@
         <v>5996</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>443</v>
+        <v>649</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -8456,10 +8495,10 @@
         <v>10338</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>165</v>
@@ -8471,13 +8510,13 @@
         <v>16335</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,13 +8531,13 @@
         <v>34403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -8507,13 +8546,13 @@
         <v>30237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -8522,13 +8561,13 @@
         <v>64640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,13 +8582,13 @@
         <v>13545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -8558,13 +8597,13 @@
         <v>8146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>668</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>660</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -8573,13 +8612,13 @@
         <v>21691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8635,7 +8674,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8647,13 +8686,13 @@
         <v>4163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -8662,13 +8701,13 @@
         <v>7778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>677</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -8677,13 +8716,13 @@
         <v>11941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8737,13 @@
         <v>1279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>681</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -8713,13 +8752,13 @@
         <v>11286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -8728,13 +8767,13 @@
         <v>12565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8788,13 @@
         <v>18661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -8764,13 +8803,13 @@
         <v>24605</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -8779,13 +8818,13 @@
         <v>43266</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8839,13 @@
         <v>5718</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -8815,13 +8854,13 @@
         <v>4407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -8830,13 +8869,13 @@
         <v>10124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8904,13 +8943,13 @@
         <v>7711</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -8919,13 +8958,13 @@
         <v>14899</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -8934,13 +8973,13 @@
         <v>22610</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8955,13 +8994,13 @@
         <v>4503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>462</v>
+        <v>713</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -8970,13 +9009,13 @@
         <v>13430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -8985,13 +9024,13 @@
         <v>17934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9006,13 +9045,13 @@
         <v>42129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -9021,13 +9060,13 @@
         <v>39086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -9036,13 +9075,13 @@
         <v>81215</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9057,13 +9096,13 @@
         <v>6469</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -9072,13 +9111,13 @@
         <v>7772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -9087,13 +9126,13 @@
         <v>14241</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>78</v>
+        <v>736</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>725</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9161,13 +9200,13 @@
         <v>33389</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="H29" s="7">
         <v>73</v>
@@ -9176,13 +9215,13 @@
         <v>44892</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>548</v>
+        <v>740</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="M29" s="7">
         <v>113</v>
@@ -9191,13 +9230,13 @@
         <v>78281</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9212,13 +9251,13 @@
         <v>17347</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -9227,13 +9266,13 @@
         <v>43208</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="M30" s="7">
         <v>84</v>
@@ -9242,13 +9281,13 @@
         <v>60556</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9263,13 +9302,13 @@
         <v>120351</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="H31" s="7">
         <v>181</v>
@@ -9278,13 +9317,13 @@
         <v>117647</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="M31" s="7">
         <v>297</v>
@@ -9293,13 +9332,13 @@
         <v>237998</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>494</v>
+        <v>762</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9314,13 +9353,13 @@
         <v>33874</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="H32" s="7">
         <v>41</v>
@@ -9329,13 +9368,13 @@
         <v>26529</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>754</v>
+        <v>551</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>555</v>
+        <v>767</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -9344,13 +9383,13 @@
         <v>60404</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
